--- a/000-要件定義/納品物/003-WBS.xlsx
+++ b/000-要件定義/納品物/003-WBS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\納品物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7448978-6C65-42D9-B568-A2B5D89F114F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB64864-20B0-4991-97DC-4309DAE4D8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-8370" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体スケジュール " sheetId="16" r:id="rId1"/>
@@ -1490,7 +1490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1860,9 +1860,240 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1872,12 +2103,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1890,24 +2115,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1926,212 +2133,8 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2688,10 +2691,10 @@
   <dimension ref="A1:BN61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="W31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="W16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BE19" activeCellId="1" sqref="BE17 BE19"/>
+      <selection pane="bottomRight" activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -2708,94 +2711,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="148" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="203" t="s">
+      <c r="B1" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="206" t="s">
+      <c r="C1" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="207"/>
-      <c r="E1" s="212" t="s">
+      <c r="D1" s="155"/>
+      <c r="E1" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="215" t="s">
+      <c r="F1" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="186">
+      <c r="G1" s="127">
         <v>45536</v>
       </c>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
-      <c r="L1" s="187"/>
-      <c r="M1" s="187"/>
-      <c r="N1" s="187"/>
-      <c r="O1" s="187"/>
-      <c r="P1" s="187"/>
-      <c r="Q1" s="187"/>
-      <c r="R1" s="187"/>
-      <c r="S1" s="187"/>
-      <c r="T1" s="187"/>
-      <c r="U1" s="187"/>
-      <c r="V1" s="187"/>
-      <c r="W1" s="187"/>
-      <c r="X1" s="187"/>
-      <c r="Y1" s="187"/>
-      <c r="Z1" s="187"/>
-      <c r="AA1" s="187"/>
-      <c r="AB1" s="187"/>
-      <c r="AC1" s="187"/>
-      <c r="AD1" s="187"/>
-      <c r="AE1" s="187"/>
-      <c r="AF1" s="187"/>
-      <c r="AG1" s="187"/>
-      <c r="AH1" s="187"/>
-      <c r="AI1" s="187"/>
-      <c r="AJ1" s="188"/>
-      <c r="AK1" s="186">
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="128"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="128"/>
+      <c r="U1" s="128"/>
+      <c r="V1" s="128"/>
+      <c r="W1" s="128"/>
+      <c r="X1" s="128"/>
+      <c r="Y1" s="128"/>
+      <c r="Z1" s="128"/>
+      <c r="AA1" s="128"/>
+      <c r="AB1" s="128"/>
+      <c r="AC1" s="128"/>
+      <c r="AD1" s="128"/>
+      <c r="AE1" s="128"/>
+      <c r="AF1" s="128"/>
+      <c r="AG1" s="128"/>
+      <c r="AH1" s="128"/>
+      <c r="AI1" s="128"/>
+      <c r="AJ1" s="129"/>
+      <c r="AK1" s="127">
         <v>45566</v>
       </c>
-      <c r="AL1" s="187"/>
-      <c r="AM1" s="187"/>
-      <c r="AN1" s="187"/>
-      <c r="AO1" s="187"/>
-      <c r="AP1" s="187"/>
-      <c r="AQ1" s="187"/>
-      <c r="AR1" s="187"/>
-      <c r="AS1" s="187"/>
-      <c r="AT1" s="187"/>
-      <c r="AU1" s="187"/>
-      <c r="AV1" s="187"/>
-      <c r="AW1" s="187"/>
-      <c r="AX1" s="187"/>
-      <c r="AY1" s="187"/>
-      <c r="AZ1" s="187"/>
-      <c r="BA1" s="187"/>
-      <c r="BB1" s="187"/>
-      <c r="BC1" s="187"/>
-      <c r="BD1" s="187"/>
-      <c r="BE1" s="187"/>
-      <c r="BF1" s="187"/>
-      <c r="BG1" s="187"/>
-      <c r="BH1" s="187"/>
-      <c r="BI1" s="187"/>
-      <c r="BJ1" s="187"/>
-      <c r="BK1" s="187"/>
-      <c r="BL1" s="187"/>
-      <c r="BM1" s="187"/>
-      <c r="BN1" s="188"/>
+      <c r="AL1" s="128"/>
+      <c r="AM1" s="128"/>
+      <c r="AN1" s="128"/>
+      <c r="AO1" s="128"/>
+      <c r="AP1" s="128"/>
+      <c r="AQ1" s="128"/>
+      <c r="AR1" s="128"/>
+      <c r="AS1" s="128"/>
+      <c r="AT1" s="128"/>
+      <c r="AU1" s="128"/>
+      <c r="AV1" s="128"/>
+      <c r="AW1" s="128"/>
+      <c r="AX1" s="128"/>
+      <c r="AY1" s="128"/>
+      <c r="AZ1" s="128"/>
+      <c r="BA1" s="128"/>
+      <c r="BB1" s="128"/>
+      <c r="BC1" s="128"/>
+      <c r="BD1" s="128"/>
+      <c r="BE1" s="128"/>
+      <c r="BF1" s="128"/>
+      <c r="BG1" s="128"/>
+      <c r="BH1" s="128"/>
+      <c r="BI1" s="128"/>
+      <c r="BJ1" s="128"/>
+      <c r="BK1" s="128"/>
+      <c r="BL1" s="128"/>
+      <c r="BM1" s="128"/>
+      <c r="BN1" s="129"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="201"/>
-      <c r="B2" s="204"/>
-      <c r="C2" s="208"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="213"/>
-      <c r="F2" s="216"/>
+      <c r="A2" s="149"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="164"/>
       <c r="G2" s="39">
         <v>45537</v>
       </c>
@@ -3037,12 +3040,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="202"/>
-      <c r="B3" s="205"/>
-      <c r="C3" s="210"/>
-      <c r="D3" s="211"/>
-      <c r="E3" s="214"/>
-      <c r="F3" s="217"/>
+      <c r="A3" s="150"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="165"/>
       <c r="G3" s="41" t="s">
         <v>14</v>
       </c>
@@ -3225,20 +3228,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="189">
+      <c r="A4" s="130">
         <v>1</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="190" t="s">
+      <c r="C4" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="191"/>
-      <c r="E4" s="192" t="s">
+      <c r="D4" s="133"/>
+      <c r="E4" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="194"/>
+      <c r="F4" s="138"/>
       <c r="G4" s="79"/>
       <c r="H4" s="103"/>
       <c r="I4" s="103"/>
@@ -3301,12 +3304,12 @@
       <c r="BN4" s="58"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="127"/>
+      <c r="A5" s="131"/>
       <c r="B5" s="32"/>
-      <c r="C5" s="151"/>
-      <c r="D5" s="152"/>
-      <c r="E5" s="193"/>
-      <c r="F5" s="195"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="139"/>
       <c r="G5" s="80"/>
       <c r="H5" s="104"/>
       <c r="I5" s="104"/>
@@ -3369,18 +3372,18 @@
       <c r="BN5" s="59"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="127">
+      <c r="A6" s="131">
         <v>2</v>
       </c>
       <c r="B6" s="32"/>
-      <c r="C6" s="155" t="s">
+      <c r="C6" s="140" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="150"/>
-      <c r="E6" s="196" t="s">
+      <c r="D6" s="141"/>
+      <c r="E6" s="144" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="198"/>
+      <c r="F6" s="146"/>
       <c r="G6" s="81"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
@@ -3443,12 +3446,12 @@
       <c r="BN6" s="105"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="127"/>
+      <c r="A7" s="131"/>
       <c r="B7" s="32"/>
-      <c r="C7" s="170"/>
-      <c r="D7" s="171"/>
-      <c r="E7" s="197"/>
-      <c r="F7" s="199"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="143"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="147"/>
       <c r="G7" s="82"/>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
@@ -3511,20 +3514,20 @@
       <c r="BN7" s="60"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="127">
+      <c r="A8" s="131">
         <v>3</v>
       </c>
       <c r="B8" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="184" t="s">
+      <c r="C8" s="182" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="185"/>
-      <c r="E8" s="159" t="s">
+      <c r="D8" s="183"/>
+      <c r="E8" s="184" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="160"/>
+      <c r="F8" s="185"/>
       <c r="G8" s="34"/>
       <c r="H8" s="53"/>
       <c r="I8" s="53"/>
@@ -3587,12 +3590,12 @@
       <c r="BN8" s="61"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="127"/>
+      <c r="A9" s="131"/>
       <c r="B9" s="107"/>
-      <c r="C9" s="176"/>
-      <c r="D9" s="177"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="141"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="167"/>
+      <c r="E9" s="170"/>
+      <c r="F9" s="172"/>
       <c r="G9" s="43"/>
       <c r="H9" s="51"/>
       <c r="I9" s="51"/>
@@ -3655,18 +3658,18 @@
       <c r="BN9" s="105"/>
     </row>
     <row r="10" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A10" s="127">
+      <c r="A10" s="131">
         <v>4</v>
       </c>
       <c r="B10" s="107"/>
-      <c r="C10" s="176" t="s">
+      <c r="C10" s="166" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="177"/>
-      <c r="E10" s="139" t="s">
+      <c r="D10" s="167"/>
+      <c r="E10" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="141"/>
+      <c r="F10" s="172"/>
       <c r="G10" s="43"/>
       <c r="H10" s="51"/>
       <c r="I10" s="51"/>
@@ -3729,12 +3732,12 @@
       <c r="BN10" s="105"/>
     </row>
     <row r="11" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A11" s="127"/>
+      <c r="A11" s="131"/>
       <c r="B11" s="107"/>
-      <c r="C11" s="176"/>
-      <c r="D11" s="177"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="141"/>
+      <c r="C11" s="166"/>
+      <c r="D11" s="167"/>
+      <c r="E11" s="170"/>
+      <c r="F11" s="172"/>
       <c r="G11" s="43"/>
       <c r="H11" s="51"/>
       <c r="I11" s="51"/>
@@ -3797,18 +3800,18 @@
       <c r="BN11" s="105"/>
     </row>
     <row r="12" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A12" s="127">
+      <c r="A12" s="131">
         <v>5</v>
       </c>
       <c r="B12" s="107"/>
-      <c r="C12" s="176" t="s">
+      <c r="C12" s="166" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="177"/>
-      <c r="E12" s="139" t="s">
+      <c r="D12" s="167"/>
+      <c r="E12" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="141"/>
+      <c r="F12" s="172"/>
       <c r="G12" s="43"/>
       <c r="H12" s="51"/>
       <c r="I12" s="51"/>
@@ -3871,12 +3874,12 @@
       <c r="BN12" s="105"/>
     </row>
     <row r="13" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A13" s="127"/>
+      <c r="A13" s="131"/>
       <c r="B13" s="33"/>
-      <c r="C13" s="178"/>
-      <c r="D13" s="179"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="142"/>
+      <c r="C13" s="168"/>
+      <c r="D13" s="169"/>
+      <c r="E13" s="171"/>
+      <c r="F13" s="173"/>
       <c r="G13" s="45"/>
       <c r="H13" s="55"/>
       <c r="I13" s="55"/>
@@ -3939,20 +3942,20 @@
       <c r="BN13" s="83"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="127">
+      <c r="A14" s="131">
         <v>6</v>
       </c>
       <c r="B14" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="180" t="s">
+      <c r="C14" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="181"/>
-      <c r="E14" s="174" t="s">
+      <c r="D14" s="175"/>
+      <c r="E14" s="178" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="175"/>
+      <c r="F14" s="180"/>
       <c r="G14" s="42"/>
       <c r="H14" s="50"/>
       <c r="I14" s="50"/>
@@ -4015,12 +4018,12 @@
       <c r="BN14" s="59"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="127"/>
+      <c r="A15" s="131"/>
       <c r="B15" s="107"/>
-      <c r="C15" s="182"/>
-      <c r="D15" s="183"/>
-      <c r="E15" s="162"/>
-      <c r="F15" s="164"/>
+      <c r="C15" s="176"/>
+      <c r="D15" s="177"/>
+      <c r="E15" s="179"/>
+      <c r="F15" s="181"/>
       <c r="G15" s="42"/>
       <c r="H15" s="50"/>
       <c r="I15" s="50"/>
@@ -4083,18 +4086,18 @@
       <c r="BN15" s="59"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="127">
+      <c r="A16" s="131">
         <v>7</v>
       </c>
       <c r="B16" s="107"/>
-      <c r="C16" s="155" t="s">
+      <c r="C16" s="140" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="150"/>
-      <c r="E16" s="161" t="s">
+      <c r="D16" s="141"/>
+      <c r="E16" s="192" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="163"/>
+      <c r="F16" s="187"/>
       <c r="G16" s="43"/>
       <c r="H16" s="51"/>
       <c r="I16" s="51"/>
@@ -4157,12 +4160,12 @@
       <c r="BN16" s="105"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="127"/>
+      <c r="A17" s="131"/>
       <c r="B17" s="107"/>
-      <c r="C17" s="167"/>
-      <c r="D17" s="168"/>
-      <c r="E17" s="174"/>
-      <c r="F17" s="175"/>
+      <c r="C17" s="190"/>
+      <c r="D17" s="191"/>
+      <c r="E17" s="178"/>
+      <c r="F17" s="180"/>
       <c r="G17" s="44"/>
       <c r="H17" s="52"/>
       <c r="I17" s="52"/>
@@ -4219,26 +4222,26 @@
       <c r="BH17" s="24"/>
       <c r="BI17" s="25"/>
       <c r="BJ17" s="26"/>
-      <c r="BK17" s="24"/>
+      <c r="BK17" s="30"/>
       <c r="BL17" s="24"/>
       <c r="BM17" s="24"/>
       <c r="BN17" s="60"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="127">
+      <c r="A18" s="131">
         <v>8</v>
       </c>
       <c r="B18" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="131" t="s">
+      <c r="C18" s="193" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="132"/>
-      <c r="E18" s="165" t="s">
+      <c r="D18" s="194"/>
+      <c r="E18" s="195" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="166"/>
+      <c r="F18" s="196"/>
       <c r="G18" s="34"/>
       <c r="H18" s="53"/>
       <c r="I18" s="53"/>
@@ -4301,12 +4304,12 @@
       <c r="BN18" s="61"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="127"/>
+      <c r="A19" s="131"/>
       <c r="B19" s="107"/>
-      <c r="C19" s="151"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="162"/>
-      <c r="F19" s="164"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="179"/>
+      <c r="F19" s="181"/>
       <c r="G19" s="44"/>
       <c r="H19" s="52"/>
       <c r="I19" s="52"/>
@@ -4363,24 +4366,24 @@
       <c r="BH19" s="24"/>
       <c r="BI19" s="25"/>
       <c r="BJ19" s="26"/>
-      <c r="BK19" s="24"/>
+      <c r="BK19" s="30"/>
       <c r="BL19" s="24"/>
       <c r="BM19" s="24"/>
       <c r="BN19" s="60"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="127">
+      <c r="A20" s="131">
         <v>9</v>
       </c>
       <c r="B20" s="107"/>
-      <c r="C20" s="155" t="s">
+      <c r="C20" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="150"/>
-      <c r="E20" s="169" t="s">
+      <c r="D20" s="141"/>
+      <c r="E20" s="186" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="163"/>
+      <c r="F20" s="187"/>
       <c r="G20" s="43"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -4443,12 +4446,12 @@
       <c r="BN20" s="105"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="127"/>
+      <c r="A21" s="131"/>
       <c r="B21" s="107"/>
-      <c r="C21" s="151"/>
-      <c r="D21" s="152"/>
-      <c r="E21" s="162"/>
-      <c r="F21" s="164"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="179"/>
+      <c r="F21" s="181"/>
       <c r="G21" s="44"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -4511,18 +4514,18 @@
       <c r="BN21" s="60"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="127">
+      <c r="A22" s="131">
         <v>10</v>
       </c>
       <c r="B22" s="107"/>
-      <c r="C22" s="155" t="s">
+      <c r="C22" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="150"/>
-      <c r="E22" s="169" t="s">
+      <c r="D22" s="141"/>
+      <c r="E22" s="186" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="163"/>
+      <c r="F22" s="187"/>
       <c r="G22" s="44"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -4585,12 +4588,12 @@
       <c r="BN22" s="62"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="127"/>
+      <c r="A23" s="131"/>
       <c r="B23" s="33"/>
-      <c r="C23" s="170"/>
-      <c r="D23" s="171"/>
-      <c r="E23" s="172"/>
-      <c r="F23" s="173"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="143"/>
+      <c r="E23" s="188"/>
+      <c r="F23" s="189"/>
       <c r="G23" s="45"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -4653,20 +4656,20 @@
       <c r="BN23" s="63"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="127">
+      <c r="A24" s="131">
         <v>11</v>
       </c>
       <c r="B24" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="131" t="s">
+      <c r="C24" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="132"/>
-      <c r="E24" s="165" t="s">
+      <c r="D24" s="194"/>
+      <c r="E24" s="195" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="166"/>
+      <c r="F24" s="196"/>
       <c r="G24" s="34"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -4729,12 +4732,12 @@
       <c r="BN24" s="64"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="127"/>
+      <c r="A25" s="131"/>
       <c r="B25" s="107"/>
-      <c r="C25" s="151"/>
-      <c r="D25" s="152"/>
-      <c r="E25" s="162"/>
-      <c r="F25" s="164"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="135"/>
+      <c r="E25" s="179"/>
+      <c r="F25" s="181"/>
       <c r="G25" s="43"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -4797,18 +4800,18 @@
       <c r="BN25" s="65"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="127">
+      <c r="A26" s="131">
         <v>12</v>
       </c>
       <c r="B26" s="107"/>
-      <c r="C26" s="149" t="s">
+      <c r="C26" s="197" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="150"/>
-      <c r="E26" s="169" t="s">
+      <c r="D26" s="141"/>
+      <c r="E26" s="186" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="163"/>
+      <c r="F26" s="187"/>
       <c r="G26" s="43"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -4871,12 +4874,12 @@
       <c r="BN26" s="65"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="127"/>
+      <c r="A27" s="131"/>
       <c r="B27" s="107"/>
-      <c r="C27" s="167"/>
-      <c r="D27" s="168"/>
-      <c r="E27" s="162"/>
-      <c r="F27" s="164"/>
+      <c r="C27" s="190"/>
+      <c r="D27" s="191"/>
+      <c r="E27" s="179"/>
+      <c r="F27" s="181"/>
       <c r="G27" s="43"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -4939,18 +4942,18 @@
       <c r="BN27" s="65"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="127">
+      <c r="A28" s="131">
         <v>13</v>
       </c>
       <c r="B28" s="107"/>
-      <c r="C28" s="149" t="s">
+      <c r="C28" s="197" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="150"/>
-      <c r="E28" s="161" t="s">
+      <c r="D28" s="141"/>
+      <c r="E28" s="192" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="163"/>
+      <c r="F28" s="187"/>
       <c r="G28" s="44"/>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
@@ -5013,12 +5016,12 @@
       <c r="BN28" s="62"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="127"/>
+      <c r="A29" s="131"/>
       <c r="B29" s="107"/>
-      <c r="C29" s="151"/>
-      <c r="D29" s="152"/>
-      <c r="E29" s="162"/>
-      <c r="F29" s="164"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="179"/>
+      <c r="F29" s="181"/>
       <c r="G29" s="44"/>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
@@ -5081,18 +5084,18 @@
       <c r="BN29" s="62"/>
     </row>
     <row r="30" spans="1:66" ht="17.399999999999999" customHeight="1">
-      <c r="A30" s="127">
+      <c r="A30" s="131">
         <v>14</v>
       </c>
       <c r="B30" s="107"/>
-      <c r="C30" s="149" t="s">
+      <c r="C30" s="197" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="150"/>
-      <c r="E30" s="139" t="s">
+      <c r="D30" s="141"/>
+      <c r="E30" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="F30" s="141"/>
+      <c r="F30" s="172"/>
       <c r="G30" s="44"/>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
@@ -5155,12 +5158,12 @@
       <c r="BN30" s="62"/>
     </row>
     <row r="31" spans="1:66" ht="17.399999999999999" customHeight="1">
-      <c r="A31" s="127"/>
+      <c r="A31" s="131"/>
       <c r="B31" s="107"/>
-      <c r="C31" s="151"/>
-      <c r="D31" s="152"/>
-      <c r="E31" s="139"/>
-      <c r="F31" s="141"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="170"/>
+      <c r="F31" s="172"/>
       <c r="G31" s="44"/>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
@@ -5223,18 +5226,18 @@
       <c r="BN31" s="62"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="127">
+      <c r="A32" s="131">
         <v>15</v>
       </c>
       <c r="B32" s="107"/>
-      <c r="C32" s="155" t="s">
+      <c r="C32" s="140" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="150"/>
-      <c r="E32" s="139" t="s">
+      <c r="D32" s="141"/>
+      <c r="E32" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="141"/>
+      <c r="F32" s="172"/>
       <c r="G32" s="44"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -5297,12 +5300,12 @@
       <c r="BN32" s="62"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1">
-      <c r="A33" s="127"/>
+      <c r="A33" s="131"/>
       <c r="B33" s="107"/>
-      <c r="C33" s="151"/>
-      <c r="D33" s="152"/>
-      <c r="E33" s="139"/>
-      <c r="F33" s="141"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="135"/>
+      <c r="E33" s="170"/>
+      <c r="F33" s="172"/>
       <c r="G33" s="44"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
@@ -5359,24 +5362,24 @@
       <c r="BH33" s="52"/>
       <c r="BI33" s="25"/>
       <c r="BJ33" s="26"/>
-      <c r="BK33" s="52"/>
-      <c r="BL33" s="52"/>
+      <c r="BK33" s="30"/>
+      <c r="BL33" s="30"/>
       <c r="BM33" s="52"/>
       <c r="BN33" s="62"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1">
-      <c r="A34" s="127">
+      <c r="A34" s="131">
         <v>16</v>
       </c>
       <c r="B34" s="107"/>
-      <c r="C34" s="149" t="s">
+      <c r="C34" s="197" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="150"/>
-      <c r="E34" s="139" t="s">
+      <c r="D34" s="141"/>
+      <c r="E34" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="141"/>
+      <c r="F34" s="172"/>
       <c r="G34" s="44"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
@@ -5439,12 +5442,12 @@
       <c r="BN34" s="62"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1">
-      <c r="A35" s="127"/>
+      <c r="A35" s="131"/>
       <c r="B35" s="107"/>
-      <c r="C35" s="151"/>
-      <c r="D35" s="152"/>
-      <c r="E35" s="139"/>
-      <c r="F35" s="141"/>
+      <c r="C35" s="134"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="170"/>
+      <c r="F35" s="172"/>
       <c r="G35" s="44"/>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
@@ -5507,18 +5510,18 @@
       <c r="BN35" s="62"/>
     </row>
     <row r="36" spans="1:66" ht="12" customHeight="1">
-      <c r="A36" s="127">
+      <c r="A36" s="131">
         <v>17</v>
       </c>
       <c r="B36" s="107"/>
-      <c r="C36" s="153" t="s">
+      <c r="C36" s="198" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="138"/>
-      <c r="E36" s="139" t="s">
+      <c r="D36" s="199"/>
+      <c r="E36" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="141"/>
+      <c r="F36" s="172"/>
       <c r="G36" s="44"/>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
@@ -5581,12 +5584,12 @@
       <c r="BN36" s="62"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1">
-      <c r="A37" s="127"/>
+      <c r="A37" s="131"/>
       <c r="B37" s="107"/>
-      <c r="C37" s="137"/>
-      <c r="D37" s="138"/>
-      <c r="E37" s="139"/>
-      <c r="F37" s="141"/>
+      <c r="C37" s="200"/>
+      <c r="D37" s="199"/>
+      <c r="E37" s="170"/>
+      <c r="F37" s="172"/>
       <c r="G37" s="44"/>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
@@ -5649,18 +5652,18 @@
       <c r="BN37" s="62"/>
     </row>
     <row r="38" spans="1:66" ht="12" customHeight="1">
-      <c r="A38" s="127">
+      <c r="A38" s="131">
         <v>18</v>
       </c>
       <c r="B38" s="107"/>
-      <c r="C38" s="137" t="s">
+      <c r="C38" s="200" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="138"/>
-      <c r="E38" s="139" t="s">
+      <c r="D38" s="199"/>
+      <c r="E38" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="F38" s="141"/>
+      <c r="F38" s="172"/>
       <c r="G38" s="44"/>
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
@@ -5723,12 +5726,12 @@
       <c r="BN38" s="62"/>
     </row>
     <row r="39" spans="1:66" ht="12" customHeight="1">
-      <c r="A39" s="127"/>
+      <c r="A39" s="131"/>
       <c r="B39" s="107"/>
-      <c r="C39" s="155"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="140"/>
-      <c r="F39" s="142"/>
+      <c r="C39" s="140"/>
+      <c r="D39" s="141"/>
+      <c r="E39" s="171"/>
+      <c r="F39" s="173"/>
       <c r="G39" s="44"/>
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
@@ -5791,20 +5794,20 @@
       <c r="BN39" s="62"/>
     </row>
     <row r="40" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A40" s="127">
+      <c r="A40" s="131">
         <v>19</v>
       </c>
-      <c r="B40" s="156" t="s">
+      <c r="B40" s="201" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="158" t="s">
+      <c r="C40" s="203" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="132"/>
-      <c r="E40" s="159" t="s">
+      <c r="D40" s="194"/>
+      <c r="E40" s="184" t="s">
         <v>40</v>
       </c>
-      <c r="F40" s="160"/>
+      <c r="F40" s="185"/>
       <c r="G40" s="34"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -5867,12 +5870,12 @@
       <c r="BN40" s="64"/>
     </row>
     <row r="41" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A41" s="127"/>
-      <c r="B41" s="157"/>
-      <c r="C41" s="151"/>
-      <c r="D41" s="152"/>
-      <c r="E41" s="139"/>
-      <c r="F41" s="141"/>
+      <c r="A41" s="131"/>
+      <c r="B41" s="202"/>
+      <c r="C41" s="134"/>
+      <c r="D41" s="135"/>
+      <c r="E41" s="170"/>
+      <c r="F41" s="172"/>
       <c r="G41" s="43"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
@@ -5935,18 +5938,18 @@
       <c r="BN41" s="65"/>
     </row>
     <row r="42" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A42" s="127">
+      <c r="A42" s="131">
         <v>20</v>
       </c>
-      <c r="B42" s="157"/>
-      <c r="C42" s="149" t="s">
+      <c r="B42" s="202"/>
+      <c r="C42" s="197" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="150"/>
-      <c r="E42" s="139" t="s">
+      <c r="D42" s="141"/>
+      <c r="E42" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="154"/>
+      <c r="F42" s="204"/>
       <c r="G42" s="43"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
@@ -6009,12 +6012,12 @@
       <c r="BN42" s="65"/>
     </row>
     <row r="43" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A43" s="127"/>
-      <c r="B43" s="157"/>
-      <c r="C43" s="151"/>
-      <c r="D43" s="152"/>
-      <c r="E43" s="139"/>
-      <c r="F43" s="154"/>
+      <c r="A43" s="131"/>
+      <c r="B43" s="202"/>
+      <c r="C43" s="134"/>
+      <c r="D43" s="135"/>
+      <c r="E43" s="170"/>
+      <c r="F43" s="204"/>
       <c r="G43" s="43"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
@@ -6077,18 +6080,18 @@
       <c r="BN43" s="65"/>
     </row>
     <row r="44" spans="1:66" s="87" customFormat="1" ht="18" customHeight="1">
-      <c r="A44" s="127">
+      <c r="A44" s="131">
         <v>21</v>
       </c>
       <c r="B44" s="107"/>
-      <c r="C44" s="149" t="s">
+      <c r="C44" s="197" t="s">
         <v>34</v>
       </c>
-      <c r="D44" s="150"/>
-      <c r="E44" s="139" t="s">
+      <c r="D44" s="141"/>
+      <c r="E44" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="F44" s="154"/>
+      <c r="F44" s="204"/>
       <c r="G44" s="43"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
@@ -6151,12 +6154,12 @@
       <c r="BN44" s="65"/>
     </row>
     <row r="45" spans="1:66" s="87" customFormat="1" ht="18" customHeight="1">
-      <c r="A45" s="127"/>
+      <c r="A45" s="131"/>
       <c r="B45" s="107"/>
-      <c r="C45" s="151"/>
-      <c r="D45" s="152"/>
-      <c r="E45" s="139"/>
-      <c r="F45" s="154"/>
+      <c r="C45" s="134"/>
+      <c r="D45" s="135"/>
+      <c r="E45" s="170"/>
+      <c r="F45" s="204"/>
       <c r="G45" s="43"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
@@ -6219,18 +6222,18 @@
       <c r="BN45" s="65"/>
     </row>
     <row r="46" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A46" s="127">
+      <c r="A46" s="131">
         <v>22</v>
       </c>
       <c r="B46" s="107"/>
-      <c r="C46" s="155" t="s">
+      <c r="C46" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="D46" s="150"/>
-      <c r="E46" s="139" t="s">
+      <c r="D46" s="141"/>
+      <c r="E46" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="F46" s="154"/>
+      <c r="F46" s="204"/>
       <c r="G46" s="43"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
@@ -6293,12 +6296,12 @@
       <c r="BN46" s="109"/>
     </row>
     <row r="47" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A47" s="127"/>
+      <c r="A47" s="131"/>
       <c r="B47" s="107"/>
-      <c r="C47" s="151"/>
-      <c r="D47" s="152"/>
-      <c r="E47" s="139"/>
-      <c r="F47" s="154"/>
+      <c r="C47" s="134"/>
+      <c r="D47" s="135"/>
+      <c r="E47" s="170"/>
+      <c r="F47" s="204"/>
       <c r="G47" s="43"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
@@ -6357,22 +6360,22 @@
       <c r="BJ47" s="19"/>
       <c r="BK47" s="94"/>
       <c r="BL47" s="94"/>
-      <c r="BM47" s="94"/>
-      <c r="BN47" s="109"/>
+      <c r="BM47" s="119"/>
+      <c r="BN47" s="218"/>
     </row>
     <row r="48" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A48" s="127">
+      <c r="A48" s="131">
         <v>23</v>
       </c>
       <c r="B48" s="107"/>
-      <c r="C48" s="149" t="s">
+      <c r="C48" s="197" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="150"/>
-      <c r="E48" s="139" t="s">
+      <c r="D48" s="141"/>
+      <c r="E48" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="141"/>
+      <c r="F48" s="172"/>
       <c r="G48" s="43"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
@@ -6435,12 +6438,12 @@
       <c r="BN48" s="109"/>
     </row>
     <row r="49" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A49" s="127"/>
+      <c r="A49" s="131"/>
       <c r="B49" s="107"/>
-      <c r="C49" s="151"/>
-      <c r="D49" s="152"/>
-      <c r="E49" s="139"/>
-      <c r="F49" s="141"/>
+      <c r="C49" s="134"/>
+      <c r="D49" s="135"/>
+      <c r="E49" s="170"/>
+      <c r="F49" s="172"/>
       <c r="G49" s="43"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
@@ -6503,18 +6506,18 @@
       <c r="BN49" s="109"/>
     </row>
     <row r="50" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A50" s="127">
+      <c r="A50" s="131">
         <v>24</v>
       </c>
       <c r="B50" s="107"/>
-      <c r="C50" s="153" t="s">
+      <c r="C50" s="198" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="138"/>
-      <c r="E50" s="139" t="s">
+      <c r="D50" s="199"/>
+      <c r="E50" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="F50" s="154"/>
+      <c r="F50" s="204"/>
       <c r="G50" s="43"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
@@ -6577,12 +6580,12 @@
       <c r="BN50" s="109"/>
     </row>
     <row r="51" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A51" s="127"/>
+      <c r="A51" s="131"/>
       <c r="B51" s="107"/>
-      <c r="C51" s="137"/>
-      <c r="D51" s="138"/>
-      <c r="E51" s="139"/>
-      <c r="F51" s="154"/>
+      <c r="C51" s="200"/>
+      <c r="D51" s="199"/>
+      <c r="E51" s="170"/>
+      <c r="F51" s="204"/>
       <c r="G51" s="43"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
@@ -6645,18 +6648,18 @@
       <c r="BN51" s="109"/>
     </row>
     <row r="52" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A52" s="127">
+      <c r="A52" s="131">
         <v>25</v>
       </c>
       <c r="B52" s="107"/>
-      <c r="C52" s="137" t="s">
+      <c r="C52" s="200" t="s">
         <v>38</v>
       </c>
-      <c r="D52" s="138"/>
-      <c r="E52" s="139" t="s">
+      <c r="D52" s="199"/>
+      <c r="E52" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="F52" s="141"/>
+      <c r="F52" s="172"/>
       <c r="G52" s="43"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
@@ -6719,12 +6722,12 @@
       <c r="BN52" s="109"/>
     </row>
     <row r="53" spans="1:66" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A53" s="127"/>
+      <c r="A53" s="131"/>
       <c r="B53" s="33"/>
-      <c r="C53" s="137"/>
-      <c r="D53" s="138"/>
-      <c r="E53" s="140"/>
-      <c r="F53" s="142"/>
+      <c r="C53" s="200"/>
+      <c r="D53" s="199"/>
+      <c r="E53" s="171"/>
+      <c r="F53" s="173"/>
       <c r="G53" s="45"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
@@ -6787,20 +6790,20 @@
       <c r="BN53" s="110"/>
     </row>
     <row r="54" spans="1:66" ht="12" customHeight="1">
-      <c r="A54" s="127">
+      <c r="A54" s="131">
         <v>26</v>
       </c>
       <c r="B54" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="143" t="s">
+      <c r="C54" s="212" t="s">
         <v>28</v>
       </c>
-      <c r="D54" s="144"/>
-      <c r="E54" s="145" t="s">
+      <c r="D54" s="213"/>
+      <c r="E54" s="214" t="s">
         <v>40</v>
       </c>
-      <c r="F54" s="147"/>
+      <c r="F54" s="216"/>
       <c r="G54" s="42"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
@@ -6863,12 +6866,12 @@
       <c r="BN54" s="112"/>
     </row>
     <row r="55" spans="1:66" ht="12" customHeight="1">
-      <c r="A55" s="127"/>
+      <c r="A55" s="131"/>
       <c r="B55" s="32"/>
-      <c r="C55" s="137"/>
-      <c r="D55" s="138"/>
-      <c r="E55" s="146"/>
-      <c r="F55" s="148"/>
+      <c r="C55" s="200"/>
+      <c r="D55" s="199"/>
+      <c r="E55" s="215"/>
+      <c r="F55" s="217"/>
       <c r="G55" s="43"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
@@ -6931,20 +6934,20 @@
       <c r="BN55" s="109"/>
     </row>
     <row r="56" spans="1:66" ht="12" customHeight="1">
-      <c r="A56" s="127">
+      <c r="A56" s="131">
         <v>27</v>
       </c>
-      <c r="B56" s="129" t="s">
+      <c r="B56" s="206" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="131" t="s">
+      <c r="C56" s="193" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="132"/>
-      <c r="E56" s="129" t="s">
+      <c r="D56" s="194"/>
+      <c r="E56" s="206" t="s">
         <v>40</v>
       </c>
-      <c r="F56" s="135"/>
+      <c r="F56" s="210"/>
       <c r="G56" s="34"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
@@ -7007,12 +7010,12 @@
       <c r="BN56" s="92"/>
     </row>
     <row r="57" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A57" s="128"/>
-      <c r="B57" s="130"/>
-      <c r="C57" s="133"/>
-      <c r="D57" s="134"/>
-      <c r="E57" s="130"/>
-      <c r="F57" s="136"/>
+      <c r="A57" s="205"/>
+      <c r="B57" s="207"/>
+      <c r="C57" s="208"/>
+      <c r="D57" s="209"/>
+      <c r="E57" s="207"/>
+      <c r="F57" s="211"/>
       <c r="G57" s="35"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
@@ -7098,21 +7101,93 @@
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="C52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="C48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="C50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="C46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="C12:D13"/>
     <mergeCell ref="E12:E13"/>
@@ -7129,93 +7204,21 @@
     <mergeCell ref="C10:D11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="C48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="C50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="C44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="C46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="C52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:AJ1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
